--- a/2007/burglary-2007.xlsx
+++ b/2007/burglary-2007.xlsx
@@ -4,12 +4,13 @@
   <workbookPr/>
   <sheets>
     <sheet sheetId="1" name="victims-by-age-gender-and-race" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="point-of-entry-exit" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="structure-security-type" state="visible" r:id="rId6"/>
-    <sheet sheetId="5" name="resident-status-of-victim" state="visible" r:id="rId7"/>
-    <sheet sheetId="6" name="how-suspect-left-scene" state="visible" r:id="rId8"/>
-    <sheet sheetId="7" name="burglary-by-time-of-day-and-day" state="visible" r:id="rId9"/>
+    <sheet sheetId="2" name="monthly-time-chart" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="offenders-by-age-gender-and-rac" state="visible" r:id="rId5"/>
+    <sheet sheetId="4" name="point-of-entry-exit" state="visible" r:id="rId6"/>
+    <sheet sheetId="5" name="structure-security-type" state="visible" r:id="rId7"/>
+    <sheet sheetId="6" name="resident-status-of-victim" state="visible" r:id="rId8"/>
+    <sheet sheetId="7" name="how-suspect-left-scene" state="visible" r:id="rId9"/>
+    <sheet sheetId="8" name="burglary-by-time-of-day-and-day" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -65,6 +66,48 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Number of Burglaries</t>
   </si>
   <si>
     <t>Offender Age, Gender and Race</t>
@@ -437,6 +480,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
@@ -654,48 +701,158 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" customWidth="1" max="1" width="39.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="1" r="A1">
+        <v>16</v>
+      </c>
+      <c t="s" s="1" r="B1">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>19</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>20</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>22</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>23</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>25</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>26</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>28</v>
+      </c>
+      <c s="1" r="N1"/>
+      <c s="1" r="O1"/>
+      <c s="1" r="P1"/>
+      <c s="1" r="Q1"/>
+      <c s="1" r="R1"/>
+      <c s="1" r="S1"/>
+      <c s="1" r="T1"/>
+      <c s="1" r="U1"/>
+      <c s="1" r="V1"/>
+      <c s="1" r="W1"/>
+      <c s="1" r="X1"/>
+      <c s="1" r="Y1"/>
+      <c s="1" r="Z1"/>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>29</v>
+      </c>
+      <c s="2" r="B2">
+        <v>2495.0</v>
+      </c>
+      <c s="2" r="C2">
+        <v>1970.0</v>
+      </c>
+      <c s="2" r="D2">
+        <v>2318.0</v>
+      </c>
+      <c s="2" r="E2">
+        <v>2473.0</v>
+      </c>
+      <c s="2" r="F2">
+        <v>2850.0</v>
+      </c>
+      <c s="2" r="G2">
+        <v>2707.0</v>
+      </c>
+      <c s="2" r="H2">
+        <v>2893.0</v>
+      </c>
+      <c s="2" r="I2">
+        <v>2833.0</v>
+      </c>
+      <c s="2" r="J2">
+        <v>2699.0</v>
+      </c>
+      <c s="2" r="K2">
+        <v>2754.0</v>
+      </c>
+      <c s="2" r="L2">
+        <v>2730.0</v>
+      </c>
+      <c s="2" r="M2">
+        <v>2809.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
     <col min="1" customWidth="1" max="1" width="36.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="3" r="A1">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c t="s" r="A2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c t="s" s="1" r="B2">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="1" r="B3">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c t="s" s="1" r="D3">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c t="s" s="1" r="F3">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c t="s" s="1" r="G3">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="1" r="A4">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c s="2" r="B4">
         <v>2006.0</v>
@@ -718,7 +875,7 @@
     </row>
     <row r="5">
       <c t="s" s="1" r="A5">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c s="2" r="B5">
         <v>2382.0</v>
@@ -741,7 +898,7 @@
     </row>
     <row r="6">
       <c t="s" s="1" r="A6">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c s="2" r="B6">
         <v>2.0</v>
@@ -764,7 +921,7 @@
     </row>
     <row r="7">
       <c t="s" s="1" r="A7">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c s="2" r="B7">
         <v>33.0</v>
@@ -787,7 +944,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c s="2" r="B8">
         <v>206.0</v>
@@ -818,7 +975,7 @@
     </row>
     <row r="10">
       <c t="s" s="1" r="A10">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c t="str" s="2" r="B10">
         <f ref="B10:G10" t="shared" si="1">sum(B4:B8)</f>
@@ -857,7 +1014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -869,18 +1026,18 @@
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c t="s" s="2" r="C1">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c s="2" r="B2">
         <v>5516.0</v>
@@ -891,7 +1048,7 @@
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c s="2" r="B3">
         <v>5943.0</v>
@@ -902,7 +1059,7 @@
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c s="2" r="B4">
         <v>2045.0</v>
@@ -913,7 +1070,7 @@
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c s="2" r="B5">
         <v>21.0</v>
@@ -924,7 +1081,7 @@
     </row>
     <row r="6">
       <c t="s" s="2" r="A6">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c s="2" r="B6">
         <v>127.0</v>
@@ -935,7 +1092,7 @@
     </row>
     <row r="7">
       <c t="s" s="2" r="A7">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c s="2" r="B7">
         <v>4426.0</v>
@@ -946,7 +1103,7 @@
     </row>
     <row r="8">
       <c t="s" s="2" r="A8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c s="2" r="B8">
         <v>7591.0</v>
@@ -957,7 +1114,7 @@
     </row>
     <row r="9">
       <c t="s" s="2" r="A9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c s="2" r="B9">
         <v>488.0</v>
@@ -968,7 +1125,7 @@
     </row>
     <row r="10">
       <c t="s" s="2" r="A10">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c s="2" r="B10">
         <v>45.0</v>
@@ -979,7 +1136,7 @@
     </row>
     <row r="11">
       <c t="s" s="2" r="A11">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c s="2" r="B11">
         <v>391.0</v>
@@ -990,7 +1147,7 @@
     </row>
     <row r="12">
       <c t="s" s="2" r="A12">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c s="2" r="B12">
         <v>107.0</v>
@@ -1001,7 +1158,7 @@
     </row>
     <row r="13">
       <c t="s" s="2" r="A13">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c s="2" r="B13">
         <v>5.0</v>
@@ -1012,7 +1169,7 @@
     </row>
     <row r="14">
       <c t="s" s="2" r="A14">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c s="2" r="B14">
         <v>15.0</v>
@@ -1023,7 +1180,7 @@
     </row>
     <row r="15">
       <c t="s" s="2" r="A15">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c s="2" r="B15">
         <v>78.0</v>
@@ -1034,7 +1191,7 @@
     </row>
     <row r="16">
       <c t="s" s="2" r="A16">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c s="2" r="B16">
         <v>4.0</v>
@@ -1045,7 +1202,7 @@
     </row>
     <row r="17">
       <c t="s" s="2" r="A17">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c s="2" r="B17">
         <v>437.0</v>
@@ -1056,7 +1213,7 @@
     </row>
     <row r="18">
       <c t="s" s="2" r="A18">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c s="2" r="B18">
         <v>4292.0</v>
@@ -1067,171 +1224,12 @@
     </row>
     <row r="19">
       <c t="s" s="2" r="A19">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A19:C19"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" customWidth="1" max="1" width="48.29"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c t="s" s="2" r="A1">
-        <v>53</v>
-      </c>
-      <c t="s" s="2" r="B1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2">
-      <c t="s" s="2" r="A2">
-        <v>55</v>
-      </c>
-      <c s="2" r="B2">
-        <v>1212.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c t="s" s="2" r="A3">
-        <v>56</v>
-      </c>
-      <c s="2" r="B3">
-        <v>281.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c t="s" s="2" r="A4">
-        <v>57</v>
-      </c>
-      <c s="2" r="B4">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c t="s" s="2" r="A5">
-        <v>58</v>
-      </c>
-      <c s="2" r="B5">
-        <v>451.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>59</v>
-      </c>
-      <c s="2" r="B6">
-        <v>155.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>60</v>
-      </c>
-      <c s="2" r="B7">
-        <v>2029.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>61</v>
-      </c>
-      <c s="2" r="B8">
-        <v>9309.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>62</v>
-      </c>
-      <c s="2" r="B9">
-        <v>2074.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>63</v>
-      </c>
-      <c s="2" r="B10">
-        <v>311.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c t="s" s="2" r="A11">
-        <v>64</v>
-      </c>
-      <c s="2" r="B11">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="s" s="2" r="A12">
-        <v>65</v>
-      </c>
-      <c s="2" r="B12">
-        <v>224.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="s" s="2" r="A13">
-        <v>66</v>
-      </c>
-      <c s="2" r="B13">
-        <v>90.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c t="s" s="2" r="A14">
-        <v>67</v>
-      </c>
-      <c s="2" r="B14">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c t="s" s="2" r="A15">
-        <v>68</v>
-      </c>
-      <c s="2" r="B15">
-        <v>200.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c t="s" s="2" r="A16">
-        <v>69</v>
-      </c>
-      <c s="2" r="B16">
-        <v>3082.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c t="s" s="2" r="A17">
-        <v>70</v>
-      </c>
-      <c s="2" r="B17">
-        <v>11922.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c t="s" s="2" r="A18">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1244,51 +1242,154 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="37.29"/>
+    <col min="1" customWidth="1" max="1" width="48.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c s="2" r="B2">
-        <v>23874.0</v>
+        <v>1212.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c s="2" r="B3">
-        <v>1821.0</v>
+        <v>281.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c s="2" r="B4">
-        <v>1916.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
+        <v>72</v>
+      </c>
+      <c s="2" r="B5">
+        <v>451.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>73</v>
+      </c>
+      <c s="2" r="B6">
+        <v>155.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>74</v>
+      </c>
+      <c s="2" r="B7">
+        <v>2029.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>75</v>
+      </c>
+      <c s="2" r="B8">
+        <v>9309.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>76</v>
+      </c>
+      <c s="2" r="B9">
+        <v>2074.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
         <v>77</v>
       </c>
-      <c t="str" s="2" r="B5">
-        <f>sum(B2:B4)</f>
-        <v>27611</v>
+      <c s="2" r="B10">
+        <v>311.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c t="s" s="2" r="A11">
+        <v>78</v>
+      </c>
+      <c s="2" r="B11">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c t="s" s="2" r="A12">
+        <v>79</v>
+      </c>
+      <c s="2" r="B12">
+        <v>224.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c t="s" s="2" r="A13">
+        <v>80</v>
+      </c>
+      <c s="2" r="B13">
+        <v>90.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c t="s" s="2" r="A14">
+        <v>81</v>
+      </c>
+      <c s="2" r="B14">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c t="s" s="2" r="A15">
+        <v>82</v>
+      </c>
+      <c s="2" r="B15">
+        <v>200.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c t="s" s="2" r="A16">
+        <v>83</v>
+      </c>
+      <c s="2" r="B16">
+        <v>3082.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c t="s" s="2" r="A17">
+        <v>84</v>
+      </c>
+      <c s="2" r="B17">
+        <v>11922.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c t="s" s="2" r="A18">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1300,87 +1401,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="49.43"/>
+    <col min="1" customWidth="1" max="1" width="37.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c t="s" s="2" r="A1">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c t="s" s="2" r="B1">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c t="s" s="2" r="A2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c s="2" r="B2">
-        <v>732.0</v>
+        <v>23874.0</v>
       </c>
     </row>
     <row r="3">
       <c t="s" s="2" r="A3">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c s="2" r="B3">
-        <v>162.0</v>
+        <v>1821.0</v>
       </c>
     </row>
     <row r="4">
       <c t="s" s="2" r="A4">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c s="2" r="B4">
-        <v>55.0</v>
+        <v>1916.0</v>
       </c>
     </row>
     <row r="5">
       <c t="s" s="2" r="A5">
-        <v>83</v>
-      </c>
-      <c s="2" r="B5">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c t="s" s="2" r="A6">
-        <v>84</v>
-      </c>
-      <c s="2" r="B6">
-        <v>109.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c t="s" s="2" r="A7">
-        <v>85</v>
-      </c>
-      <c s="2" r="B7">
-        <v>2039.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c t="s" s="2" r="A8">
-        <v>86</v>
-      </c>
-      <c s="2" r="B8">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c t="s" s="2" r="A9">
-        <v>87</v>
-      </c>
-      <c s="2" r="B9">
-        <v>279.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c t="s" s="2" r="A10">
-        <v>88</v>
-      </c>
-      <c s="2" r="B10">
-        <v>28142.0</v>
+        <v>91</v>
+      </c>
+      <c t="str" s="2" r="B5">
+        <f>sum(B2:B4)</f>
+        <v>27611</v>
       </c>
     </row>
   </sheetData>
@@ -1394,49 +1456,144 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" customWidth="1" max="1" width="49.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c t="s" s="2" r="A1">
+        <v>92</v>
+      </c>
+      <c t="s" s="2" r="B1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2">
+      <c t="s" s="2" r="A2">
+        <v>94</v>
+      </c>
+      <c s="2" r="B2">
+        <v>732.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c t="s" s="2" r="A3">
+        <v>95</v>
+      </c>
+      <c s="2" r="B3">
+        <v>162.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c t="s" s="2" r="A4">
+        <v>96</v>
+      </c>
+      <c s="2" r="B4">
+        <v>55.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c t="s" s="2" r="A5">
+        <v>97</v>
+      </c>
+      <c s="2" r="B5">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c t="s" s="2" r="A6">
+        <v>98</v>
+      </c>
+      <c s="2" r="B6">
+        <v>109.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c t="s" s="2" r="A7">
+        <v>99</v>
+      </c>
+      <c s="2" r="B7">
+        <v>2039.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c t="s" s="2" r="A8">
+        <v>100</v>
+      </c>
+      <c s="2" r="B8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c t="s" s="2" r="A9">
+        <v>101</v>
+      </c>
+      <c s="2" r="B9">
+        <v>279.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c t="s" s="2" r="A10">
+        <v>102</v>
+      </c>
+      <c s="2" r="B10">
+        <v>28142.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c t="s" s="1" r="A1">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c t="s" s="1" r="B1">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c t="s" s="1" r="C1">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c t="s" s="1" r="D1">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c t="s" s="1" r="E1">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" s="1" r="F1">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c t="s" s="1" r="G1">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c t="s" s="1" r="H1">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c t="s" s="1" r="I1">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c t="s" s="1" r="J1">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c t="s" s="1" r="K1">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="s" s="1" r="L1">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c t="s" s="1" r="M1">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c t="s" s="1" r="N1">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c s="1" r="O1"/>
       <c s="1" r="P1"/>
@@ -1453,7 +1610,7 @@
     </row>
     <row r="2">
       <c t="s" s="3" r="A2">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c s="2" r="B2">
         <v>370.0</v>
@@ -1497,7 +1654,7 @@
     </row>
     <row r="3">
       <c t="s" s="3" r="A3">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c s="2" r="B3">
         <v>344.0</v>
@@ -1541,7 +1698,7 @@
     </row>
     <row r="4">
       <c t="s" s="3" r="A4">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c s="2" r="B4">
         <v>321.0</v>
@@ -1585,7 +1742,7 @@
     </row>
     <row r="5">
       <c t="s" s="3" r="A5">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c s="2" r="B5">
         <v>325.0</v>
@@ -1629,7 +1786,7 @@
     </row>
     <row r="6">
       <c t="s" s="3" r="A6">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c s="2" r="B6">
         <v>328.0</v>
@@ -1673,7 +1830,7 @@
     </row>
     <row r="7">
       <c t="s" s="3" r="A7">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c s="2" r="B7">
         <v>387.0</v>
@@ -1717,7 +1874,7 @@
     </row>
     <row r="8">
       <c t="s" s="3" r="A8">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c s="2" r="B8">
         <v>400.0</v>
@@ -1761,7 +1918,7 @@
     </row>
     <row r="9">
       <c t="s" s="3" r="A9">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c t="str" s="2" r="B9">
         <f ref="B9:N9" t="shared" si="1">sum(B2:B8)</f>
